--- a/codigo_feb_5_9/listas_indices.xlsx
+++ b/codigo_feb_5_9/listas_indices.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="8_{E38626FD-C9E1-4389-AA3D-385C3EC9C1D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{BE1651D7-3301-43ED-B936-6D1E0B070A21}"/>
+    <workbookView xWindow="12090" yWindow="480" windowWidth="16155" windowHeight="14940" xr2:uid="{BE1651D7-3301-43ED-B936-6D1E0B070A21}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -434,7 +434,7 @@
   <dimension ref="B9:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9:F9"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/codigo_feb_5_9/listas_indices.xlsx
+++ b/codigo_feb_5_9/listas_indices.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6289c937e7e0e52b/Escritorio/python_basico_santander/repositorio/codigo_feb_5_9/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E38626FD-C9E1-4389-AA3D-385C3EC9C1D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="8_{E38626FD-C9E1-4389-AA3D-385C3EC9C1D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{246CDECA-B4C8-4368-B669-8C623C08DBD9}"/>
   <bookViews>
-    <workbookView xWindow="12090" yWindow="480" windowWidth="16155" windowHeight="14940" xr2:uid="{BE1651D7-3301-43ED-B936-6D1E0B070A21}"/>
+    <workbookView xWindow="10620" yWindow="360" windowWidth="16155" windowHeight="14940" xr2:uid="{BE1651D7-3301-43ED-B936-6D1E0B070A21}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>números</t>
   </si>
@@ -45,6 +45,18 @@
   </si>
   <si>
     <t>índices neg.</t>
+  </si>
+  <si>
+    <t>Jorge</t>
+  </si>
+  <si>
+    <t>nombre</t>
+  </si>
+  <si>
+    <t>edad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">altura </t>
   </si>
 </sst>
 </file>
@@ -431,15 +443,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F89FAB6-99DD-4ABC-9F6E-34799A04DC4B}">
-  <dimension ref="B9:G11"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>34</v>
+      </c>
+      <c r="C2">
+        <v>1.89</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B9" s="2">
         <v>3</v>
       </c>
@@ -459,7 +493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B10" s="1">
         <v>0</v>
       </c>
@@ -479,7 +513,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B11" s="1">
         <v>-5</v>
       </c>
